--- a/trunk/DOCS/Test Cases/UC09-New Incident Report.xlsx
+++ b/trunk/DOCS/Test Cases/UC09-New Incident Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Intput Type</t>
   </si>
@@ -63,127 +63,52 @@
     <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number. Input Explanation: O1 means option 1 will be selected for this case. Ore is the example to use in test case.</t>
   </si>
   <si>
-    <t>TC15.01</t>
-  </si>
-  <si>
-    <t>TC15.02</t>
-  </si>
-  <si>
-    <t>TC15.03</t>
-  </si>
-  <si>
-    <t>TC15.04</t>
-  </si>
-  <si>
-    <t>&lt;Selected&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Not Selected&gt;</t>
-  </si>
-  <si>
-    <t>Location of Incident</t>
-  </si>
-  <si>
-    <t>Message for Manager</t>
-  </si>
-  <si>
     <t>Empty</t>
   </si>
   <si>
-    <t>Less then two 3 letters</t>
-  </si>
-  <si>
-    <t>More than 260 characters</t>
-  </si>
-  <si>
-    <t>Contains special character</t>
-  </si>
-  <si>
-    <t>More than 50 characters</t>
-  </si>
-  <si>
-    <t>Action on Form</t>
-  </si>
-  <si>
-    <t>&lt;Send&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Cancel&gt;</t>
-  </si>
-  <si>
-    <t>Action on Photo button</t>
-  </si>
-  <si>
-    <t>takes picture, adds to the volunteer’s report and automatically returns to Report Incident pag</t>
-  </si>
-  <si>
-    <t>Action on Video button</t>
-  </si>
-  <si>
-    <t>Action on 'Take Picture' button</t>
-  </si>
-  <si>
-    <t>Action on Record button</t>
-  </si>
-  <si>
-    <t>Type of Incident</t>
-  </si>
-  <si>
-    <t>Incident Type</t>
-  </si>
-  <si>
-    <t>Successfully reporting incident (wihout Photo and Video)</t>
-  </si>
-  <si>
-    <t>Successfully reporting incident (wih Video)</t>
-  </si>
-  <si>
-    <t>Successfully reporting incident (wih Photo)</t>
-  </si>
-  <si>
-    <t>Successfully reporting incident (wih Photo and Video)</t>
-  </si>
-  <si>
-    <t>takes picture adds to the volunteer’s report, and take video and automatically returns to Report Incident pag</t>
-  </si>
-  <si>
-    <t>capture video, adds to the volunteer’s report and automatically returns to Report Incident pag</t>
-  </si>
-  <si>
-    <t>successfully reports incident</t>
-  </si>
-  <si>
-    <t>Cancel button will ignore all, and navigate volunteer to main page</t>
-  </si>
-  <si>
-    <t>with invalid data, application checks missing data and notify</t>
-  </si>
-  <si>
-    <t>Ignore changes, and navigate volunteer to main page</t>
-  </si>
-  <si>
-    <t>TC15.05</t>
-  </si>
-  <si>
-    <t>TC15.06</t>
-  </si>
-  <si>
-    <t>O2:ABCD</t>
-  </si>
-  <si>
-    <t>O2:A</t>
-  </si>
-  <si>
-    <t>O2:Earthquake</t>
-  </si>
-  <si>
-    <t>Less then 250 and greater than  three letters</t>
-  </si>
-  <si>
-    <t>O2:one more person found</t>
-  </si>
-  <si>
-    <t>notify data missing/invalid</t>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Message to the manager</t>
+  </si>
+  <si>
+    <t>Not empty</t>
+  </si>
+  <si>
+    <t>Message to Manager</t>
+  </si>
+  <si>
+    <t>O1:Empty</t>
+  </si>
+  <si>
+    <t>O2:Not empty</t>
+  </si>
+  <si>
+    <t>Report is registered in the system</t>
+  </si>
+  <si>
+    <t>TC09:01</t>
+  </si>
+  <si>
+    <t>TC09:02</t>
+  </si>
+  <si>
+    <t>Report incident with correct data</t>
+  </si>
+  <si>
+    <t>Report with incorrect Location and correct message</t>
+  </si>
+  <si>
+    <t>Error message</t>
+  </si>
+  <si>
+    <t>TC09:03</t>
+  </si>
+  <si>
+    <t>Report with correct Location and incorrect message</t>
+  </si>
+  <si>
+    <t>Report with incorrect Location and incorrect message</t>
   </si>
 </sst>
 </file>
@@ -325,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -337,8 +262,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,15 +285,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +583,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -707,20 +629,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -728,13 +646,13 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -742,37 +660,21 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
-      </c>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -780,15 +682,9 @@
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -797,15 +693,9 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -814,15 +704,9 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -831,15 +715,9 @@
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -976,10 +854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,291 +869,151 @@
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="8" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="1:8" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" ht="33.75" customHeight="1" thickTop="1">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="13" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="33.75" customHeight="1" thickTop="1">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" customHeight="1">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="30">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30">
-      <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="6"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="6"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOCS/Test Cases/UC09-New Incident Report.xlsx
+++ b/trunk/DOCS/Test Cases/UC09-New Incident Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Intput Type</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Report with incorrect Location and incorrect message</t>
+  </si>
+  <si>
+    <t>TC09:04</t>
+  </si>
+  <si>
+    <t>View reported incident</t>
+  </si>
+  <si>
+    <t>The incident reported will be shown in the list</t>
   </si>
 </sst>
 </file>
@@ -857,7 +866,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -997,10 +1006,18 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" s="6"/>
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="6"/>
